--- a/biology/Botanique/Eriopsis/Eriopsis.xlsx
+++ b/biology/Botanique/Eriopsis/Eriopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriopsis est un genre de plantes à fleurs de la famille des Orchidaceae (les orchidées) comptant cinq espèces originaires d'Amérique Centrale et d'Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Eriopsis a été formé à partir du nom du genre Eria et du grec: ὤΨις, (opsis) signifiant "aspect", soulignant la ressemblance avec les orchidées du genre Eria.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eriopsis amazonica Kolan. &amp; Szlach.
 Eriopsis biloba Lindl. (espèce type)
@@ -576,7 +592,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Amérique centrale
 Amérique du Sud
@@ -608,7 +626,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Szlachetko D., 1995. Fragm. Florist. Geobot. Suppl., 3,94.
 Lindlley J., 1847. Edwards's Bot. Reg. 33: t. 18.</t>
